--- a/00_soil-water-reset-Qs/lewi-soil-prof.xlsx
+++ b/00_soil-water-reset-Qs/lewi-soil-prof.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Documents\_github_repos\ghproj_ccgap\00_soil-water-reset-Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\Documents\git_hubby\my_repos\ghproj_ccgap\00_soil-water-reset-Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07860089-6B1F-464B-8CA5-0FF69370995F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>depth_cm</t>
   </si>
@@ -78,12 +70,72 @@
   </si>
   <si>
     <t>soybean_xf</t>
+  </si>
+  <si>
+    <t>0-2.5</t>
+  </si>
+  <si>
+    <t>2.5-5</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>30-45</t>
+  </si>
+  <si>
+    <t>45-60</t>
+  </si>
+  <si>
+    <t>60-75</t>
+  </si>
+  <si>
+    <t>75-90</t>
+  </si>
+  <si>
+    <t>90-105</t>
+  </si>
+  <si>
+    <t>105-120</t>
+  </si>
+  <si>
+    <t>120-150</t>
+  </si>
+  <si>
+    <t>150-180</t>
+  </si>
+  <si>
+    <t>180-210</t>
+  </si>
+  <si>
+    <t>210-240</t>
+  </si>
+  <si>
+    <t>240-270</t>
+  </si>
+  <si>
+    <t>270-300</t>
+  </si>
+  <si>
+    <t>300-330</t>
+  </si>
+  <si>
+    <t>330-360</t>
+  </si>
+  <si>
+    <t>360-390</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>10-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,10 +170,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,20 +487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="A2:O19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -494,345 +546,945 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G2" s="1">
+        <v>302</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G3" s="1">
+        <v>302</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G4" s="1">
+        <v>302</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G5" s="1">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="M6" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>104</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="M9" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G10" s="1">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="1">
+        <v>68.912999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="M14" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>46.433999999999997</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31.288</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>21.082000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>14.206</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.5719999999999992</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
